--- a/pred_ohlcv/54_21/2019-10-16 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LOOM ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-1309960.2611</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1324482.4886</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1179672.5618</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1223026.949400001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1223565.584200001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1232456.978800001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1231144.978800001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1206697.096300001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1271486.830100001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1413341.216100001</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1413331.216100001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1467813.794500001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1093315.012672204</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1093990.825572204</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1066590.825572204</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1056727.652572204</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1053248.735772204</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1027186.347072204</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1028616.028472204</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1752265.378672204</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1650392.006272204</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1653276.006772204</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1651850.522272204</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1633977.960472204</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1637386.409072204</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1623919.840672204</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1623869.840672204</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1555321.649272204</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1558123.185272204</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1564103.158472204</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1640386.178072204</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1617284.178072204</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1617917.046572204</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1478619.607272204</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1429460.792772204</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1372605.576572204</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1381705.576572204</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1381605.576572204</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1379676.322372204</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1341654.017372204</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1380253.629172204</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1372171.952772204</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1373638.740672204</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1366006.858572204</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1298010.191372204</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1141499.429872204</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1064018.563472204</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-397163.8966722041</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-392734.8315481117</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-312568.7602815544</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-312568.7602815544</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-310060.9800815544</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-325098.0524815544</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-331279.6675815544</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-618055.4876815544</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LOOM ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-1309960.2611</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1324482.4886</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1179672.5618</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1223026.949400001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1223565.584200001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1232456.978800001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1231144.978800001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1206697.096300001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1271486.830100001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1413341.216100001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1093315.012672204</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1093990.825572204</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1066590.825572204</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1056727.652572204</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1053248.735772204</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1027186.347072204</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1028616.028472204</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1752265.378672204</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1650392.006272204</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1653276.006772204</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1651850.522272204</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1633977.960472204</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1637386.409072204</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1623919.840672204</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1623869.840672204</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1571701.649272204</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1555321.649272204</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1558123.185272204</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1702935.913572204</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1648734.417772204</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1652286.981572204</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1666103.158472204</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1564103.158472204</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1640386.178072204</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1617284.178072204</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1617917.046572204</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1614298.135372204</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1614298.135372204</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1561290.786372204</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1550669.992072204</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1490605.144272204</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1486225.519872204</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1487364.002572204</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1477564.002572204</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1477564.002572204</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1478619.607272204</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1429460.792772204</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1372605.576572204</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1381705.576572204</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1381605.576572204</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1379676.322372204</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1341654.017372204</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1380253.629172204</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1372171.952772204</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1373638.740672204</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1366006.858572204</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1298010.191372204</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1141499.429872204</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1064018.563472204</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-397163.8966722041</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-345918.2266481118</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-392734.8315481117</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-312568.7602815544</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-309449.2322815544</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-310060.9800815544</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-325098.0524815544</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-331279.6675815544</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-618055.4876815544</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
